--- a/medicine/Enfance/John_Gardner_(écrivain_américain)/John_Gardner_(écrivain_américain).xlsx
+++ b/medicine/Enfance/John_Gardner_(écrivain_américain)/John_Gardner_(écrivain_américain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John_Gardner_(%C3%A9crivain_am%C3%A9ricain)</t>
+          <t>John_Gardner_(écrivain_américain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Gardner, né le 21 juillet 1933 à Batavia dans l'État de New York et mort le 14 septembre 1982 dans le Comté de Susquehanna en Pennsylvanie, est un écrivain américain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>John_Gardner_(%C3%A9crivain_am%C3%A9ricain)</t>
+          <t>John_Gardner_(écrivain_américain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gardner est né à Batavia, New York. Son père était un prédicateur et un producteur laitier, et sa mère enseignait en troisième année dans une petite école d'un village voisin. Les deux parents aimaient la poésie et récitaient souvent leur poésie et les poésies préférées qu'ils écrivaient sur la vie à la ferme et dans les maisons d'amis. Gardner est actif dans les Boy Scouts of America et atteint le rang Eagle Scout. Enfant, Gardner fréquentait l'école publique et travaillait dans la ferme de son père, où en avril 1945, son frère cadet Gilbert fut tué dans un accident.  Gardner, qui conduisait le tracteur pendant l'accident mortel, s'est senti coupable de la mort de son frère tout au long de sa vie, souffrant de cauchemars et de flashbacks. Cet accident a influé une grande partie de la fiction et de la critique de Gardner - et plus directement dans la nouvelle de 1977 "Redemption", qui incluait une relation fictive de l'accident comme un élan d'inspiration artistique.
 Gardner a commencé ses études universitaires à l'Université DePauw, et a obtenu son diplôme de premier cycle de l'Université de Washington à St. Louis en 1955. Il a reçu sa maîtrise (1956) et son doctorat (1958) de l'Université de l'Iowa.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>John_Gardner_(%C3%A9crivain_am%C3%A9ricain)</t>
+          <t>John_Gardner_(écrivain_américain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-(en) The Resurrection, New American Library, 1966
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) The Resurrection, New American Library, 1966
 (en) The Wreckage of Agathon, Harper &amp; Row, 1970
 Grendel, Denoël, 1974 ((en) Grendel, Alfred A. Knopf, 1971)
 L'Homme-Soleil, Denoël, 1975 ((en) The Sunlight Dialogues, Alfred A. Knopf, 1972)
@@ -557,9 +576,43 @@
 (en) Vlemk the Box Painter, Lord John Press, 1979
 Le Livre de Freddy, Denoël, 1982 ((en) Freddy's Book, Alfred A. Knopf, 1980)
 La Symphonie des spectres, Denoël, 1985 ((en) Mickelsson's Ghosts, Alfred A. Knopf, 1982)
-(en) Stillness and Shadows, Alfred A. Knopf, 1986
-Recueil de nouvelles
-(en) The Art of Living and Other Stories, Alfred A. Knopf, 1981</t>
+(en) Stillness and Shadows, Alfred A. Knopf, 1986</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>John_Gardner_(écrivain_américain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Gardner_(%C3%A9crivain_am%C3%A9ricain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The Art of Living and Other Stories, Alfred A. Knopf, 1981</t>
         </is>
       </c>
     </row>
